--- a/trunk/Appli/Méthodologie/Etapes/Conception/Tableau de traçabilité/Fatal_PDS_tableau de tracabilite.xlsx
+++ b/trunk/Appli/Méthodologie/Etapes/Conception/Tableau de traçabilité/Fatal_PDS_tableau de tracabilite.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>Packages</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Extension</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Collecter les informations terrains </t>
   </si>
   <si>
@@ -92,32 +89,143 @@
     <t>S-1029 : Affecter les messages critiques par ordre</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>composant (unité systé</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>me)</t>
-    </r>
+    <t>Composant-embarqué</t>
+  </si>
+  <si>
+    <t>Protocole-communication</t>
+  </si>
+  <si>
+    <t>RTDG-parser</t>
+  </si>
+  <si>
+    <t>RTDG-criticite</t>
+  </si>
+  <si>
+    <t>com.esiag.composantembarque.composant-embarque</t>
+  </si>
+  <si>
+    <t>com.esiag.pds.composantembarque.main</t>
+  </si>
+  <si>
+    <t>com.esiag.pds.composantembarque.helper</t>
+  </si>
+  <si>
+    <t>com.esiag.pds.composantembarque.helper.structure</t>
+  </si>
+  <si>
+    <t>com.esiag.pds.message</t>
+  </si>
+  <si>
+    <t>com.esiag.pds.source</t>
+  </si>
+  <si>
+    <t>com.esiag.protocole.protocole_communication</t>
+  </si>
+  <si>
+    <t>org.esiag.isidis.projet.Factory</t>
+  </si>
+  <si>
+    <t>org.esiag.isidis.projet.message</t>
+  </si>
+  <si>
+    <t>org.esiag.isidis.projet.test</t>
+  </si>
+  <si>
+    <t>org.esiag.isidis.projet.traitement</t>
+  </si>
+  <si>
+    <t>com.esiag.isidis.pds</t>
+  </si>
+  <si>
+    <t>com.esiag.rtdj.criticit.rtjd_criticite</t>
+  </si>
+  <si>
+    <t>com.esiag.rtdj.parser.rtdj_parser</t>
+  </si>
+  <si>
+    <t>com.esiag.pds.collecteInfo</t>
+  </si>
+  <si>
+    <t>executable</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>jar</t>
+  </si>
+  <si>
+    <t>composant-embarque</t>
+  </si>
+  <si>
+    <t>App.java</t>
+  </si>
+  <si>
+    <t>Main.java</t>
+  </si>
+  <si>
+    <t>MessageHelper.java</t>
+  </si>
+  <si>
+    <t>BinaryMessage.java</t>
+  </si>
+  <si>
+    <t>MessageReferentiel.java</t>
+  </si>
+  <si>
+    <t>FormatMessage.java</t>
+  </si>
+  <si>
+    <t>MessageModel.java</t>
+  </si>
+  <si>
+    <t>MessageRandom.java</t>
+  </si>
+  <si>
+    <t>DataSource.java</t>
+  </si>
+  <si>
+    <t>RandomSource.java</t>
+  </si>
+  <si>
+    <t>Source.java</t>
+  </si>
+  <si>
+    <t>Client.java</t>
+  </si>
+  <si>
+    <t>Message.java</t>
+  </si>
+  <si>
+    <t>MessageAnalyzer.java</t>
+  </si>
+  <si>
+    <t>MessageReader.java</t>
+  </si>
+  <si>
+    <t>Serveur.java</t>
+  </si>
+  <si>
+    <t>ServeurThread.java</t>
+  </si>
+  <si>
+    <t>BufferMessage.java</t>
+  </si>
+  <si>
+    <t>CriticalBuffer.java</t>
+  </si>
+  <si>
+    <t>CriticiteValue.java</t>
+  </si>
+  <si>
+    <t>ParsedMessage.java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,15 +286,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,24 +302,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -278,11 +385,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,15 +408,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -310,148 +417,164 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="17.25" customHeight="1"/>
@@ -764,85 +887,174 @@
     <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A7" s="35"/>
+      <c r="B7" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="25"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="62"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="24"/>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="62"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A6" s="57"/>
-      <c r="B6" s="22"/>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="62"/>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="27"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="62"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="31"/>
-    </row>
-    <row r="11" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="62"/>
-    </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="32"/>
-    </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="62"/>
-    </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="62"/>
-    </row>
-    <row r="16" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="20"/>
-    </row>
-    <row r="17" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="62"/>
-    </row>
-    <row r="18" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="20"/>
+      <c r="B9" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A10" s="37"/>
+      <c r="B10" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A11" s="63"/>
+      <c r="B11" s="64"/>
+    </row>
+    <row r="12" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A12" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A14" s="34"/>
+      <c r="B14" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A15" s="34"/>
+      <c r="B15" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A16" s="35"/>
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="63"/>
+      <c r="B17" s="64"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A19" s="35"/>
+      <c r="B19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A20" s="63"/>
+      <c r="B20" s="64"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A23" s="28"/>
+      <c r="B23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A24" s="63"/>
+      <c r="B24" s="64"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A26" s="63"/>
+      <c r="B26" s="64"/>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+    </row>
+    <row r="29" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A18:A19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
@@ -850,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.28515625" defaultRowHeight="15"/>
@@ -861,119 +1073,106 @@
     <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="66" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="36"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="36"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="36"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="36"/>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="36"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="37"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="35"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="38"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="36"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="38"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="37"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1"/>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="38"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="40"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="40"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="40"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B10:B11"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -985,7 +1184,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -995,10 +1194,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="67" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1021,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B17"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29" defaultRowHeight="15"/>
@@ -1032,217 +1231,273 @@
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="64.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="51"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="51"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="51"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="51"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="51"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="51"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="51"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="25"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B16" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="40"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="40"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="40"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="54"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="39" t="s">
+      <c r="C16" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="51"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="51"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="40"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="40"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="40"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="40"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="41"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="53"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="33" t="s">
+      <c r="B21" s="55"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="26"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="56"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="53"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="33" t="s">
+      <c r="B23" s="56"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="53"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="55" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="53"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="34" t="s">
+      <c r="B27" s="57"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="53"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="50"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="53"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A2:A8"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1251,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1267,27 +1522,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="43" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="34"/>
+      <c r="B10" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="42"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="44"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="41"/>
+      <c r="B24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="41"/>
+      <c r="B25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="41"/>
+      <c r="B26" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="41"/>
+      <c r="B27" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="41"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="41"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="41"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="41"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="41"/>
+      <c r="B34" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="B14:B20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>

--- a/trunk/Appli/Méthodologie/Etapes/Conception/Tableau de traçabilité/Fatal_PDS_tableau de tracabilite.xlsx
+++ b/trunk/Appli/Méthodologie/Etapes/Conception/Tableau de traçabilité/Fatal_PDS_tableau de tracabilite.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="11670" windowHeight="5550" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="11670" windowHeight="5550" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Composants | Packages" sheetId="1" r:id="rId1"/>
-    <sheet name="Type Composant" sheetId="2" r:id="rId2"/>
-    <sheet name="communication &lt;=&gt; protocol" sheetId="5" r:id="rId3"/>
+    <sheet name="Type Composant" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="communication &lt;=&gt; protocol" sheetId="5" state="hidden" r:id="rId3"/>
     <sheet name="UC|US package " sheetId="7" r:id="rId4"/>
     <sheet name="unité systeme &lt;=&gt; package" sheetId="6" r:id="rId5"/>
   </sheets>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>Packages</t>
   </si>
@@ -101,24 +101,6 @@
     <t>RTDG-criticite</t>
   </si>
   <si>
-    <t>com.esiag.composantembarque.composant-embarque</t>
-  </si>
-  <si>
-    <t>com.esiag.pds.composantembarque.main</t>
-  </si>
-  <si>
-    <t>com.esiag.pds.composantembarque.helper</t>
-  </si>
-  <si>
-    <t>com.esiag.pds.composantembarque.helper.structure</t>
-  </si>
-  <si>
-    <t>com.esiag.pds.message</t>
-  </si>
-  <si>
-    <t>com.esiag.pds.source</t>
-  </si>
-  <si>
     <t>com.esiag.protocole.protocole_communication</t>
   </si>
   <si>
@@ -155,9 +137,6 @@
     <t>jar</t>
   </si>
   <si>
-    <t>composant-embarque</t>
-  </si>
-  <si>
     <t>App.java</t>
   </si>
   <si>
@@ -170,18 +149,9 @@
     <t>BinaryMessage.java</t>
   </si>
   <si>
-    <t>MessageReferentiel.java</t>
-  </si>
-  <si>
-    <t>FormatMessage.java</t>
-  </si>
-  <si>
     <t>MessageModel.java</t>
   </si>
   <si>
-    <t>MessageRandom.java</t>
-  </si>
-  <si>
     <t>DataSource.java</t>
   </si>
   <si>
@@ -219,6 +189,111 @@
   </si>
   <si>
     <t>ParsedMessage.java</t>
+  </si>
+  <si>
+    <t>com.esiag.pds.datasource</t>
+  </si>
+  <si>
+    <t>com.esiag.pds.datasource.tables</t>
+  </si>
+  <si>
+    <t>com.esiag.pds.messagegenerator.equipement</t>
+  </si>
+  <si>
+    <t>com.esiag.pds.messagegenerator.messagehelper</t>
+  </si>
+  <si>
+    <t>com.esiag.pds.messagegenerator.messages</t>
+  </si>
+  <si>
+    <t>edu.org.isidis.fi.projet.client_embarque</t>
+  </si>
+  <si>
+    <t>org.esiag.isidis.gestionLigne</t>
+  </si>
+  <si>
+    <t>org.esiag.isidis.gestionRame</t>
+  </si>
+  <si>
+    <t>org.esiag.isidis.gestionStation</t>
+  </si>
+  <si>
+    <t>org.esiag.isidis.outils</t>
+  </si>
+  <si>
+    <t>org.esiag.isidis.terrain</t>
+  </si>
+  <si>
+    <t>Composant-embarqué (??)</t>
+  </si>
+  <si>
+    <t>CapteurIntelligent.java</t>
+  </si>
+  <si>
+    <t>CapteurSource.java</t>
+  </si>
+  <si>
+    <t>SourceEquippement.java</t>
+  </si>
+  <si>
+    <t>Type.java</t>
+  </si>
+  <si>
+    <t>Value.java</t>
+  </si>
+  <si>
+    <t>Equipement.java</t>
+  </si>
+  <si>
+    <t>File.java</t>
+  </si>
+  <si>
+    <t>Random.java</t>
+  </si>
+  <si>
+    <t>Simulateur.java</t>
+  </si>
+  <si>
+    <t>Transformer.java</t>
+  </si>
+  <si>
+    <t>EffecteurLigne.java</t>
+  </si>
+  <si>
+    <t>Ieffecteur.java</t>
+  </si>
+  <si>
+    <t>Ligne.java</t>
+  </si>
+  <si>
+    <t>EffecteurRame.java</t>
+  </si>
+  <si>
+    <t>Rame.java</t>
+  </si>
+  <si>
+    <t>ThreadEffecteur.java</t>
+  </si>
+  <si>
+    <t>Station.java</t>
+  </si>
+  <si>
+    <t>Controleur.java</t>
+  </si>
+  <si>
+    <t>Iupdate.java</t>
+  </si>
+  <si>
+    <t>Model.java</t>
+  </si>
+  <si>
+    <t>Position.java</t>
+  </si>
+  <si>
+    <t>TableContent.java</t>
+  </si>
+  <si>
+    <t>Trajectoire.java</t>
   </si>
 </sst>
 </file>
@@ -398,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -476,33 +551,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -510,40 +558,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -575,6 +593,69 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+      <selection activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="17.25" customHeight="1"/>
@@ -888,172 +969,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="52"/>
+      <c r="B3" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="52"/>
+      <c r="B4" s="50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A5" s="52"/>
+      <c r="B5" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A7" s="52"/>
+      <c r="B7" s="50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A8" s="52"/>
+      <c r="B8" s="50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A10" s="52"/>
+      <c r="B10" s="50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A11" s="52"/>
+      <c r="B11" s="50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A12" s="53"/>
+      <c r="B12" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+    </row>
+    <row r="14" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A14" s="68"/>
+    </row>
+    <row r="15" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A15" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A16" s="67"/>
+      <c r="B16" s="49" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="14" t="s">
+    <row r="17" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A18" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A19" s="52"/>
+      <c r="B19" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="14" t="s">
+    <row r="20" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A20" s="52"/>
+      <c r="B20" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="14" t="s">
+    <row r="21" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A21" s="52"/>
+      <c r="B21" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="14" t="s">
+    <row r="22" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A22" s="53"/>
+      <c r="B22" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="14" t="s">
+    <row r="23" spans="1:6" ht="15">
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A24" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64"/>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A9" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="13" t="s">
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A25" s="53"/>
+      <c r="B25" s="15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
-    </row>
-    <row r="12" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A12" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-    </row>
-    <row r="18" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="17"/>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
-    </row>
-    <row r="23" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="18"/>
-    </row>
-    <row r="24" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A24" s="63"/>
-      <c r="B24" s="64"/>
-    </row>
-    <row r="25" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="10"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+    </row>
+    <row r="33" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
+    </row>
+    <row r="35" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A35" s="16"/>
+      <c r="B35" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A2:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -1074,16 +1188,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="47" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1091,81 +1205,81 @@
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>44</v>
+      <c r="B2" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="38"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="40"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="40"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" customHeight="1"/>
   </sheetData>
@@ -1184,7 +1298,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1194,10 +1308,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="48" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1220,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29" defaultRowHeight="15"/>
@@ -1249,221 +1363,197 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>27</v>
+      <c r="C2" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="14" t="s">
-        <v>28</v>
+      <c r="A3" s="59"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="50" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="51"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="14" t="s">
-        <v>29</v>
+      <c r="A4" s="59"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="50" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="51"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="14" t="s">
-        <v>30</v>
+      <c r="A5" s="59"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="50" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="51"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="14" t="s">
-        <v>31</v>
+      <c r="A6" s="59"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="50" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="51"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="14" t="s">
-        <v>32</v>
+      <c r="A7" s="59"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="50" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="51"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>40</v>
+      <c r="A8" s="59"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="50" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="51"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="11" t="s">
-        <v>34</v>
+      <c r="A9" s="59"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="50" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="51"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="11" t="s">
-        <v>35</v>
+      <c r="A10" s="59"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="50" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="51"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="11" t="s">
-        <v>36</v>
+      <c r="A11" s="59"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="50" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="51"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="11" t="s">
-        <v>37</v>
+      <c r="A12" s="59"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="50" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="51"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="A13" s="59"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="51"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="A14" s="59"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="25"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="59"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="59"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="25"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B20" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="51"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="59"/>
+      <c r="B22" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="51"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="26"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4">
@@ -1473,31 +1563,57 @@
       <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="21"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="21"/>
       <c r="D30" s="24"/>
     </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C14"/>
+  <mergeCells count="8">
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C2:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1506,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1522,284 +1638,424 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="52"/>
+      <c r="B5" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="52"/>
+      <c r="B10" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="52"/>
+      <c r="B11" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="52"/>
+      <c r="B16" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="52"/>
+      <c r="B17" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="52"/>
+      <c r="B18" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="52"/>
+      <c r="B21" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="52"/>
+      <c r="B24" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="52"/>
+      <c r="B25" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="52"/>
+      <c r="B29" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="32"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="63"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="63"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="55"/>
+      <c r="B39" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="14" t="s">
+      <c r="C39" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="65"/>
+      <c r="B42" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="14" t="s">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="65"/>
+      <c r="B43" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="33" t="s">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="65"/>
+      <c r="B44" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="33" t="s">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="65"/>
+      <c r="B45" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="2" t="s">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="65"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="2" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="65"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="2" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="65"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="65"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="15" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="65"/>
+      <c r="B52" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="15" t="s">
+      <c r="C52" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="B14:B20"/>
+  <mergeCells count="15">
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/trunk/Appli/Méthodologie/Etapes/Conception/Tableau de traçabilité/Fatal_PDS_tableau de tracabilite.xlsx
+++ b/trunk/Appli/Méthodologie/Etapes/Conception/Tableau de traçabilité/Fatal_PDS_tableau de tracabilite.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
   <si>
     <t>Packages</t>
   </si>
@@ -137,18 +137,9 @@
     <t>jar</t>
   </si>
   <si>
-    <t>App.java</t>
-  </si>
-  <si>
-    <t>Main.java</t>
-  </si>
-  <si>
     <t>MessageHelper.java</t>
   </si>
   <si>
-    <t>BinaryMessage.java</t>
-  </si>
-  <si>
     <t>MessageModel.java</t>
   </si>
   <si>
@@ -162,33 +153,6 @@
   </si>
   <si>
     <t>Client.java</t>
-  </si>
-  <si>
-    <t>Message.java</t>
-  </si>
-  <si>
-    <t>MessageAnalyzer.java</t>
-  </si>
-  <si>
-    <t>MessageReader.java</t>
-  </si>
-  <si>
-    <t>Serveur.java</t>
-  </si>
-  <si>
-    <t>ServeurThread.java</t>
-  </si>
-  <si>
-    <t>BufferMessage.java</t>
-  </si>
-  <si>
-    <t>CriticalBuffer.java</t>
-  </si>
-  <si>
-    <t>CriticiteValue.java</t>
-  </si>
-  <si>
-    <t>ParsedMessage.java</t>
   </si>
   <si>
     <t>com.esiag.pds.datasource</t>
@@ -599,6 +563,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,10 +578,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -633,9 +600,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,14 +611,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,7 +922,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="A8:XFD8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="17.25" customHeight="1"/>
@@ -977,71 +941,71 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="52"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="50" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="52"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="50" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="50" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="50" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A7" s="52"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="50" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A8" s="52"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="50" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="50" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="50" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="50" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A12" s="53"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="50" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -1049,10 +1013,10 @@
       <c r="B13" s="45"/>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A14" s="68"/>
+      <c r="A14" s="51"/>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="56" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -1060,7 +1024,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A16" s="67"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="49" t="s">
         <v>27</v>
       </c>
@@ -1070,7 +1034,7 @@
       <c r="B17" s="45"/>
     </row>
     <row r="18" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="53" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1078,25 +1042,25 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A19" s="52"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A20" s="52"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A21" s="52"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A22" s="53"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="11" t="s">
         <v>31</v>
       </c>
@@ -1106,7 +1070,7 @@
       <c r="B23" s="45"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="53" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -1115,7 +1079,7 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A25" s="53"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="15" t="s">
         <v>33</v>
       </c>
@@ -1205,13 +1169,13 @@
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="57" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1219,25 +1183,25 @@
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="44"/>
@@ -1363,132 +1327,132 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="51" t="s">
-        <v>68</v>
+      <c r="C2" s="53" t="s">
+        <v>56</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="59"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="50" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="59"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="50" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="59"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="52"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="50" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="59"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="50" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="59"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="50" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="59"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="50" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="59"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="52"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="50" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="59"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="52"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="50" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="59"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="52"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="50" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="59"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="53"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="50" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="59"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="69"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="59"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="69"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="59"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="69"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="59"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="20"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="59"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="19"/>
       <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="59"/>
-      <c r="B18" s="62"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="20"/>
       <c r="D18" s="13"/>
     </row>
@@ -1499,33 +1463,33 @@
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="59"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="53"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="59"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="53"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4">
@@ -1624,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B23"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1649,230 +1613,230 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="54"/>
+      <c r="B5" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="12" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="54"/>
+      <c r="B11" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="54"/>
+      <c r="B16" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="54"/>
+      <c r="B17" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="12" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="54"/>
+      <c r="B18" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="12" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="54"/>
+      <c r="B21" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="12" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="12" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="12" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="54"/>
+      <c r="B24" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="54"/>
+      <c r="B25" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="2" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="2" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="2" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="54"/>
+      <c r="B29" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="52"/>
-      <c r="B18" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="2" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="52"/>
-      <c r="B21" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="52"/>
-      <c r="B24" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="52"/>
-      <c r="B25" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="52"/>
-      <c r="B29" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1881,66 +1845,44 @@
       <c r="C31" s="34"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>42</v>
-      </c>
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="35"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="35"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="35" t="s">
-        <v>48</v>
-      </c>
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="35"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="35" t="s">
-        <v>49</v>
-      </c>
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="35"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="35"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="63"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="35" t="s">
-        <v>51</v>
-      </c>
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="35"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="63"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="35" t="s">
-        <v>52</v>
-      </c>
+      <c r="A38" s="68"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="35"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="55"/>
-      <c r="B39" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>39</v>
-      </c>
+      <c r="A39" s="69"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="35"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="64"/>
@@ -1948,42 +1890,28 @@
       <c r="C40" s="64"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>39</v>
-      </c>
+      <c r="A41" s="65"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="35"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="65"/>
-      <c r="B42" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="B42" s="14"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="65"/>
-      <c r="B43" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="B43" s="14"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="65"/>
-      <c r="B44" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="B44" s="14"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="65"/>
-      <c r="B45" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="B45" s="14"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3">
@@ -1992,60 +1920,37 @@
       <c r="C46" s="66"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A47" s="65"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="65"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B48" s="56"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="65"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="B49" s="56"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="65"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="B50" s="56"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="65"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="B51" s="56"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="65"/>
-      <c r="B52" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="B47:B51"/>
     <mergeCell ref="A32:A39"/>
     <mergeCell ref="B32:B38"/>
     <mergeCell ref="A2:A30"/>
@@ -2056,6 +1961,11 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B47:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/trunk/Appli/Méthodologie/Etapes/Conception/Tableau de traçabilité/Fatal_PDS_tableau de tracabilite.xlsx
+++ b/trunk/Appli/Méthodologie/Etapes/Conception/Tableau de traçabilité/Fatal_PDS_tableau de tracabilite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="11670" windowHeight="5550" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="11670" windowHeight="5550" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Composants | Packages" sheetId="1" r:id="rId1"/>
@@ -681,55 +681,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -738,9 +690,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -756,6 +705,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,16 +768,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,7 +1098,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -1106,31 +1106,31 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A3" s="56"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A4" s="56"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="44" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="44" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A6" s="56"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="44" t="s">
         <v>61</v>
       </c>
@@ -1164,7 +1164,7 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="57" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -1172,25 +1172,25 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A14" s="56"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A15" s="56"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A16" s="56"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="12" t="s">
         <v>70</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="B18" s="35"/>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="56" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1208,13 +1208,13 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A20" s="79"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A21" s="79"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="12" t="s">
         <v>74</v>
       </c>
@@ -1297,13 +1297,13 @@
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="58" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1311,25 +1311,25 @@
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="34"/>
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29" defaultRowHeight="15"/>
@@ -1455,10 +1455,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="60" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="44" t="s">
@@ -1469,9 +1469,9 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="52"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="56" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="57" t="s">
         <v>82</v>
       </c>
       <c r="D3" s="44" t="s">
@@ -1479,40 +1479,40 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="52"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="56"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="44" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="52"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="56"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="52"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="56"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="44" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="52"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="56"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="44" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="64"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="12" t="s">
         <v>87</v>
       </c>
@@ -1521,8 +1521,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="64"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="12" t="s">
         <v>83</v>
       </c>
@@ -1537,13 +1537,13 @@
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="57" t="s">
         <v>86</v>
       </c>
       <c r="D11" s="41" t="s">
@@ -1551,27 +1551,27 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="52"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="56"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="41" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="52"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="66"/>
+      <c r="B14" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="62" t="s">
         <v>86</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -1579,17 +1579,17 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="52"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="47"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="41" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="65"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="48"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="41" t="s">
         <v>74</v>
       </c>
@@ -1690,7 +1690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -1715,7 +1715,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="62" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -1726,8 +1726,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="62" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1735,22 +1735,22 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="62" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1758,21 +1758,21 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="47"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="44" t="s">
         <v>91</v>
       </c>
@@ -1781,8 +1781,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="62" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -1790,35 +1790,35 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="72" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="55" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="40"/>
       <c r="C14" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="48"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="44" t="s">
         <v>61</v>
       </c>
@@ -1827,9 +1827,9 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="73"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="45" t="s">
@@ -1843,9 +1843,9 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="39" t="s">
@@ -1855,15 +1855,15 @@
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="73"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="58" t="s">
         <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1871,22 +1871,22 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="47"/>
-      <c r="B22" s="50"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="47"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="47"/>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="63"/>
+      <c r="B24" s="58" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1894,35 +1894,35 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="47"/>
-      <c r="B26" s="50"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="50"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="47"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="47"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="42" t="s">
         <v>68</v>
       </c>
@@ -1931,8 +1931,8 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="47"/>
-      <c r="B30" s="49" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="58" t="s">
         <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1940,35 +1940,35 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="47"/>
-      <c r="B31" s="50"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="47"/>
-      <c r="B32" s="50"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="47"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="47"/>
-      <c r="B34" s="76"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="48"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="42" t="s">
         <v>70</v>
       </c>
@@ -1977,15 +1977,15 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="73"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="75"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="76"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="58" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1993,15 +1993,15 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="58"/>
-      <c r="B38" s="76"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="58"/>
-      <c r="B39" s="49" t="s">
+      <c r="A39" s="78"/>
+      <c r="B39" s="58" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2009,22 +2009,22 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="58"/>
-      <c r="B40" s="50"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="76"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="58"/>
-      <c r="B42" s="49" t="s">
+      <c r="A42" s="78"/>
+      <c r="B42" s="58" t="s">
         <v>74</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2032,23 +2032,23 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="58"/>
-      <c r="B43" s="50"/>
+      <c r="A43" s="78"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="73"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="75"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="76"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11" t="s">
@@ -2062,15 +2062,15 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="73"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="75"/>
+      <c r="A47" s="74"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="76"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="58" t="s">
         <v>78</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2078,36 +2078,36 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="76"/>
-      <c r="B51" s="76"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="73"/>
       <c r="C51" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="73"/>
-      <c r="B52" s="74"/>
-      <c r="C52" s="75"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="77" t="s">
+      <c r="B53" s="72" t="s">
         <v>80</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2115,23 +2115,23 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="78"/>
-      <c r="B54" s="77"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="25" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="78"/>
-      <c r="B55" s="77"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="66"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="67"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="50"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="21"/>
@@ -2139,200 +2139,200 @@
       <c r="C57" s="21"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="21"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="70"/>
-      <c r="B59" s="70"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="21"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="21"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="21"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="53"/>
       <c r="C62" s="21"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="70"/>
-      <c r="B63" s="70"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
       <c r="C63" s="21"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="70"/>
-      <c r="B64" s="70"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="53"/>
       <c r="C64" s="21"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="70"/>
-      <c r="B65" s="68"/>
+      <c r="A65" s="53"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="21"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="71"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="71"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="66"/>
-      <c r="B67" s="69"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="52"/>
       <c r="C67" s="21"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="66"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="67"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="50"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="66"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="67"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="50"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="66"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="67"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="50"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="66"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="67"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="50"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="71"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="66"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="67"/>
+      <c r="A73" s="49"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="50"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="66"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="67"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="50"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="66"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="67"/>
+      <c r="A75" s="49"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="50"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="66"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="67"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="50"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="66"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="67"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="50"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="66"/>
-      <c r="B78" s="68"/>
-      <c r="C78" s="67"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="50"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="67"/>
-      <c r="B79" s="67"/>
-      <c r="C79" s="67"/>
+      <c r="A79" s="50"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="67"/>
-      <c r="B80" s="67"/>
-      <c r="C80" s="67"/>
+      <c r="A80" s="50"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="67"/>
-      <c r="B81" s="67"/>
-      <c r="C81" s="67"/>
+      <c r="A81" s="50"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="50"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="67"/>
-      <c r="B82" s="67"/>
-      <c r="C82" s="67"/>
+      <c r="A82" s="50"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="50"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="67"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="67"/>
+      <c r="A83" s="50"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="50"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="67"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="67"/>
+      <c r="A84" s="50"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="67"/>
-      <c r="B85" s="67"/>
-      <c r="C85" s="67"/>
+      <c r="A85" s="50"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="50"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="67"/>
-      <c r="B86" s="67"/>
-      <c r="C86" s="67"/>
+      <c r="A86" s="50"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="67"/>
-      <c r="B87" s="67"/>
-      <c r="C87" s="67"/>
+      <c r="A87" s="50"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="50"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="67"/>
-      <c r="B88" s="67"/>
-      <c r="C88" s="67"/>
+      <c r="A88" s="50"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="50"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="67"/>
-      <c r="B89" s="67"/>
-      <c r="C89" s="67"/>
+      <c r="A89" s="50"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="67"/>
-      <c r="B90" s="67"/>
-      <c r="C90" s="67"/>
+      <c r="A90" s="50"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="67"/>
-      <c r="B91" s="67"/>
-      <c r="C91" s="67"/>
+      <c r="A91" s="50"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A21:A35"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B24:B28"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A48:A51"/>
     <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A21:A35"/>
     <mergeCell ref="A37:A44"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/trunk/Appli/Méthodologie/Etapes/Conception/Tableau de traçabilité/Fatal_PDS_tableau de tracabilite.xlsx
+++ b/trunk/Appli/Méthodologie/Etapes/Conception/Tableau de traçabilité/Fatal_PDS_tableau de tracabilite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="6570" windowHeight="5490" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="195" windowWidth="6570" windowHeight="5370" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Composants | Packages" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="207">
   <si>
     <t>Packages</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>ViewInformation.java</t>
-  </si>
-  <si>
-    <t>MessageBuffer</t>
   </si>
   <si>
     <t>Context.java</t>
@@ -489,6 +486,183 @@
       </rPr>
       <t>(*)</t>
     </r>
+  </si>
+  <si>
+    <t>Traiter les incidents critiques simples reçus depuis le Composant Embarqué</t>
+  </si>
+  <si>
+    <t>addToBufferObserver.java</t>
+  </si>
+  <si>
+    <t>MessageBuffer.java</t>
+  </si>
+  <si>
+    <t>rtdg-web</t>
+  </si>
+  <si>
+    <t>acs.java.servlette</t>
+  </si>
+  <si>
+    <t>com.esiag.dao</t>
+  </si>
+  <si>
+    <t>com.esiag.db</t>
+  </si>
+  <si>
+    <t>com.esiag.entities</t>
+  </si>
+  <si>
+    <t>Gestion des données et des services  dédiés à l'administrateur</t>
+  </si>
+  <si>
+    <t>Démarrage des services</t>
+  </si>
+  <si>
+    <t>Controler.java</t>
+  </si>
+  <si>
+    <t>ActionDAO.java</t>
+  </si>
+  <si>
+    <t>CapteurTypeBooleanDAO.java</t>
+  </si>
+  <si>
+    <t>CategorieCapteurDAO.java</t>
+  </si>
+  <si>
+    <t>CriticiteDAO.java</t>
+  </si>
+  <si>
+    <t>DAO.java</t>
+  </si>
+  <si>
+    <t>EvenementDAO.java</t>
+  </si>
+  <si>
+    <t>IdentificationCapteurDAO.java</t>
+  </si>
+  <si>
+    <t>IdentificationSourceDAO.java</t>
+  </si>
+  <si>
+    <t>InterventionAutomatiqueDAO.java</t>
+  </si>
+  <si>
+    <t>SourceDonneeDAO.java</t>
+  </si>
+  <si>
+    <t>TypeCapteurDAO.java</t>
+  </si>
+  <si>
+    <t>TypeValueDAO.java</t>
+  </si>
+  <si>
+    <t>HibernateUtil.java</t>
+  </si>
+  <si>
+    <t>SessionDB.java</t>
+  </si>
+  <si>
+    <t>Action.java</t>
+  </si>
+  <si>
+    <t>CapteurTypeBoolean.java</t>
+  </si>
+  <si>
+    <t>CategorieCapteur.java</t>
+  </si>
+  <si>
+    <t>Criticite.java</t>
+  </si>
+  <si>
+    <t>Evenement.java</t>
+  </si>
+  <si>
+    <t>IdentificationCapteur.java</t>
+  </si>
+  <si>
+    <t>IdentificationSource.java</t>
+  </si>
+  <si>
+    <t>Ientity.java</t>
+  </si>
+  <si>
+    <t>InterventionAutomatique.java</t>
+  </si>
+  <si>
+    <t>SourceDonnee.java</t>
+  </si>
+  <si>
+    <t>TypeCapteur.java</t>
+  </si>
+  <si>
+    <t>TypeValue.java</t>
+  </si>
+  <si>
+    <t>rtdg-Transmetter</t>
+  </si>
+  <si>
+    <t>com.rtdg.classesused</t>
+  </si>
+  <si>
+    <t>com.rtdg.CE.client</t>
+  </si>
+  <si>
+    <t>com.rtdg.transmetterObject</t>
+  </si>
+  <si>
+    <t>com.rtdg.transmetter</t>
+  </si>
+  <si>
+    <t>Traduire les ordres en provenance du Centre de Contrôle pour qu'ils soient interprétables par le Composant Embarqué</t>
+  </si>
+  <si>
+    <t>Traitement du message avant sa transmission aux composants terrain</t>
+  </si>
+  <si>
+    <t>com.rtdg.transmeterObject</t>
+  </si>
+  <si>
+    <t>ClientCE.java</t>
+  </si>
+  <si>
+    <t>com.rtdg.TransmeterObject</t>
+  </si>
+  <si>
+    <t>ActionAnalyser.java</t>
+  </si>
+  <si>
+    <t>ActionAutomatique.java</t>
+  </si>
+  <si>
+    <t>EvenementCritique.java</t>
+  </si>
+  <si>
+    <t>ObjectRef.java</t>
+  </si>
+  <si>
+    <t>ActionAutomaticManager.java</t>
+  </si>
+  <si>
+    <t>Transmetter.java</t>
+  </si>
+  <si>
+    <t>rtdg-injecteur</t>
+  </si>
+  <si>
+    <t>Injection de messages aux Composants Embarqués</t>
+  </si>
+  <si>
+    <t>rtdg-Injecteur</t>
+  </si>
+  <si>
+    <t>Injecteur.java</t>
+  </si>
+  <si>
+    <t>PrincipalFrame.java</t>
+  </si>
+  <si>
+    <t>Supervision des instances</t>
   </si>
 </sst>
 </file>
@@ -752,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -785,9 +959,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -824,12 +995,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,7 +1026,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,43 +1041,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,10 +1123,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -943,18 +1144,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -967,7 +1162,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1278,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1292,15 +1486,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1308,12 +1502,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="57" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1321,71 +1515,71 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="45" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="45" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="45" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="45" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="45" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="45" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="49" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="45" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="41" t="s">
         <v>84</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -1393,8 +1587,8 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1405,8 +1599,8 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -1417,8 +1611,8 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -1429,11 +1623,11 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="45" t="s">
         <v>92</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1441,11 +1635,11 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="53" t="s">
         <v>94</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1453,65 +1647,139 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
     </row>
     <row r="29" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="3" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
+    </row>
+    <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-    </row>
-    <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="33" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
+      <c r="B33" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55"/>
+      <c r="B34" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="3" t="s">
+    <row r="35" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="56"/>
+      <c r="B35" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
-      <c r="B35" s="3" t="s">
-        <v>122</v>
+    <row r="36" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+    </row>
+    <row r="37" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="53"/>
+      <c r="B38" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="53"/>
+      <c r="B39" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="53"/>
+      <c r="B40" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
+    </row>
+    <row r="42" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="53"/>
+      <c r="B43" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="53"/>
+      <c r="B44" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="53"/>
+      <c r="B45" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="31"/>
+    </row>
+    <row r="47" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A42:A45"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A37:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -1532,16 +1800,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1549,13 +1817,13 @@
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="54" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1563,67 +1831,67 @@
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1652,10 +1920,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1678,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,267 +1975,267 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="39" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="54" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="39" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="42" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="42" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="39" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="42" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="39" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="46" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="42" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="42" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="39" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="46" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="42" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="46" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="42" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="46" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="42" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="46" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="42" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="46" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="42" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="61"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="39" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="52" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="42" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="42" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="39" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="36" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="48" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="36" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="18"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="13"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="18"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="65"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="65"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="65"/>
+      <c r="B27" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C27" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="65"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="65"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="7" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="65"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="60" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="65"/>
+      <c r="B31" s="66" t="s">
         <v>137</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="60" t="s">
-        <v>138</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>86</v>
@@ -1977,19 +2245,19 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="62"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
-      <c r="B33" s="48" t="s">
-        <v>139</v>
+      <c r="A33" s="65"/>
+      <c r="B33" s="44" t="s">
+        <v>138</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>86</v>
@@ -1999,33 +2267,33 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="48" t="s">
-        <v>140</v>
+      <c r="A34" s="69"/>
+      <c r="B34" s="44" t="s">
+        <v>139</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="18"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="27" t="s">
-        <v>145</v>
+      <c r="B36" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="27" t="s">
-        <v>146</v>
+      <c r="A37" s="65"/>
+      <c r="B37" s="26" t="s">
+        <v>145</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>86</v>
@@ -2035,69 +2303,267 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="27" t="s">
-        <v>147</v>
+      <c r="A38" s="65"/>
+      <c r="B38" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="27" t="s">
-        <v>148</v>
+      <c r="A39" s="69"/>
+      <c r="B39" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="18"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="18"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="18"/>
+      <c r="B43" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="65"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="65"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="65"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="65"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="65"/>
+      <c r="B48" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="65"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="65"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="69"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="65"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="65"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="65"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="65"/>
+      <c r="B57" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="69"/>
+      <c r="B58" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="50"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="50"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="50"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="50"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B16"/>
     <mergeCell ref="C3:C13"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A23:A34"/>
-    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="A53:A58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2106,10 +2572,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:A94"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,21 +2588,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="39" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -2144,12 +2610,12 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="40" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2160,27 +2626,27 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="54" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2188,22 +2654,22 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="54" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2211,36 +2677,36 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="75"/>
+      <c r="B16" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2248,8 +2714,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="52" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="54" t="s">
         <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2257,36 +2723,36 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="66"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="40" t="s">
+      <c r="A22" s="75"/>
+      <c r="B22" s="37" t="s">
         <v>77</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2294,8 +2760,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="75"/>
+      <c r="B23" s="45" t="s">
         <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2303,8 +2769,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="52" t="s">
+      <c r="A24" s="75"/>
+      <c r="B24" s="54" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2312,22 +2778,22 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="66"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="52" t="s">
+      <c r="A27" s="75"/>
+      <c r="B27" s="54" t="s">
         <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2335,22 +2801,22 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="66"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="49" t="s">
+      <c r="A30" s="75"/>
+      <c r="B30" s="45" t="s">
         <v>81</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2358,8 +2824,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="52" t="s">
+      <c r="A31" s="75"/>
+      <c r="B31" s="54" t="s">
         <v>82</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2367,29 +2833,29 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="53"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="66"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="52" t="s">
+      <c r="A35" s="75"/>
+      <c r="B35" s="54" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2397,22 +2863,22 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="66"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="54" t="s">
         <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2420,29 +2886,29 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
-      <c r="B39" s="53"/>
+      <c r="A39" s="78"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
-      <c r="B40" s="66"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="65"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="73"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="79" t="s">
         <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2450,43 +2916,43 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="71"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="71"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="80"/>
       <c r="C44" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="71"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="80"/>
       <c r="C45" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="75"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="81"/>
       <c r="C46" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="65"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="73"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="55" t="s">
         <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2494,29 +2960,29 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
-      <c r="B50" s="66"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="63"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="65"/>
+      <c r="A51" s="71"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="73"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="67" t="s">
+      <c r="A52" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="70" t="s">
+      <c r="B52" s="79" t="s">
         <v>91</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2524,394 +2990,729 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="B53" s="71"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="80"/>
       <c r="C53" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
-      <c r="B54" s="75"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="80"/>
       <c r="C54" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="53"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="71"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="73"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="65"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="2" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="53"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="2" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="53"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="2" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="71"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="73"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="70"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="70"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="70"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="70"/>
+      <c r="B65" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="70"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="70"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="70"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="70"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="70"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="70"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="70"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="71"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="73"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="86" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="63"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="65"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
-      <c r="B64" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="25" t="s">
+      <c r="B74" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="86"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="86"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="86"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="86"/>
+      <c r="B78" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="86"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="86"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="86"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="71"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="73"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="82"/>
+      <c r="B84" s="86"/>
+      <c r="C84" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="82"/>
+      <c r="B85" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="82"/>
+      <c r="B86" s="88"/>
+      <c r="C86" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="82"/>
+      <c r="B87" s="88"/>
+      <c r="C87" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="82"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="82"/>
+      <c r="B89" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="82"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="82"/>
+      <c r="B91" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="82"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="82"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="82"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="82"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="55"/>
+      <c r="B97" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="55"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="55"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="55"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="55"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="55"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="55"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="55"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="55"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="55"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="55"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="55"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="55"/>
+      <c r="B109" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="55"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="55"/>
+      <c r="B111" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="55"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="55"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="55"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="55"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="55"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="55"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="55"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="55"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="55"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="55"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="56"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="B123" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="53"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="53"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="53"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="53"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="53"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="53"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="53"/>
+      <c r="B130" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="53"/>
+      <c r="B131" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="53"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="53"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="53"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="53"/>
+      <c r="B135" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="53"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="53"/>
+      <c r="B137" s="56"/>
+      <c r="C137" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="B138" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="53"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="53"/>
+      <c r="B140" s="53"/>
+      <c r="C140" s="24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="65"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="B73" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="79"/>
-      <c r="B74" s="79"/>
-      <c r="C74" s="80" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="79"/>
-      <c r="B75" s="79"/>
-      <c r="C75" s="80" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="79"/>
-      <c r="B76" s="79"/>
-      <c r="C76" s="80" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="79"/>
-      <c r="B77" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" s="80" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="79"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="80" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="79"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="80" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="79"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="80" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="63"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="65"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="B82" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
-      <c r="B83" s="79"/>
-      <c r="C83" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
-      <c r="B84" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
-      <c r="B85" s="82"/>
-      <c r="C85" s="25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
-      <c r="B86" s="82"/>
-      <c r="C86" s="25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
-      <c r="B87" s="83"/>
-      <c r="C87" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
-      <c r="B88" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="67"/>
-      <c r="C91" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
-      <c r="B92" s="67"/>
-      <c r="C92" s="25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="51"/>
-      <c r="B93" s="67"/>
-      <c r="C93" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
-      <c r="B94" s="67"/>
-      <c r="C94" s="25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="44"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="44"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="44"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="44"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="44"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="44"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="44"/>
-      <c r="B101" s="44"/>
-      <c r="C101" s="44"/>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="53"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="53"/>
+      <c r="B142" s="53"/>
+      <c r="C142" s="24" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="A82:A94"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="B82:B83"/>
+  <mergeCells count="50">
+    <mergeCell ref="B138:B142"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A83:A95"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B65:B72"/>
+    <mergeCell ref="A61:A72"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A38:A40"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B64:B71"/>
-    <mergeCell ref="A60:A71"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B24:B26"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A8:A36"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="A123:A137"/>
+    <mergeCell ref="B97:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B122"/>
+    <mergeCell ref="A96:A122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" copies="0" r:id="rId1"/>
